--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_05_end.xlsx
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Jesselton"]Anthony mighta kept his voice down in that “safe room” of his, but, see, I'm the kinda person who notices things. Wasn't difficult at all to listen in.
+    <t xml:space="preserve">[name="Jesselton"]Anthony mighta kept his voice down in that 'safe room' of his, but, see, I'm the kinda person who notices things. Wasn't difficult at all to listen in.
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Jesselton"]But “if” don't live anywhere.
+    <t xml:space="preserve">[name="Jesselton"]But 'if' don't live anywhere.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_05_end.xlsx
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ジェッセルトン"]しかし惜しむらくは……彼はあなたの身元を知らなかったのです。
+    <t xml:space="preserve">[name="ジェッセルトン"]しかし惜しむらくは……彼があなたの身元について何も知らなかったことです。
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ジェッセルトン"]幸運だったのは、アイアンフォージシティが属する州の法律では、州域内で捕縛された逃亡犯の裁判は、州内でおいて行われる、とされていたことです。
+    <t xml:space="preserve">[name="ジェッセルトン"]幸運だったのは、アイアンフォージシティが属する州の法律では、州域内で捕縛された逃亡犯の裁判は、州内にて行われる、とされていたことです。
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ジェッセルトン"]お父さまを最先端の病室に移し、最高の治療を受けさせてくれるはできるでしょうか？
+    <t xml:space="preserve">[name="ジェッセルトン"]お父さまを最先端の病室に移し、最高の治療を受けさせることができるでしょうか？
 </t>
   </si>
   <si>
